--- a/NformTester/NformTester/keywordscripts/TST1174_DataPointsNameIsEditableOrNot.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1174_DataPointsNameIsEditableOrNot.xlsx
@@ -1240,7 +1240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7993" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8028" uniqueCount="884">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3735,9 +3735,6 @@
     <t>;Login.</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>F</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -3774,14 +3771,6 @@
     <t>SingleManual</t>
   </si>
   <si>
-    <t>10.146.83.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ABC GXT UPS"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -3792,10 +3781,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"Unit name"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3834,9 +3819,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Unit name</t>
-  </si>
-  <si>
     <t>;Verify that Change should reflect in "Navigate" --&gt; "Parametric".</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3845,9 +3827,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3856,14 +3835,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"ABC GXT UPS"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"  "</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3882,49 +3853,6 @@
     <t>"nform testing"</t>
   </si>
   <si>
-    <t>"Input voltage"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input voltage</t>
-  </si>
-  <si>
-    <t>"My Input voltage"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input voltage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>My Input voltage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>My Input voltage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"test remove Input voltage"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test remove Input voltage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"my Unit name"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my Unit name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"test-writedata"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3948,12 +3876,83 @@
     <t>"{CONTROL down}{Akey}{CONTROL up}"</t>
   </si>
   <si>
-    <t>"ABC GXT UPS (10.146.83.10)"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sashimi</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMPdevice_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ABC GXT UPS (10.146.88.10)"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"System Name"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System Name</t>
+  </si>
+  <si>
+    <t>"My System Name"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My System Name</t>
+  </si>
+  <si>
+    <t>"System Location"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System Location</t>
+  </si>
+  <si>
+    <t>"test remove System Name"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test remove System Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"My System Location"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My System Location</t>
+  </si>
+  <si>
+    <t>{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Output Capacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Log all data points.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4498,10 +4497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N130"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129:C130"/>
+    <sheetView tabSelected="1" topLeftCell="C125" workbookViewId="0">
+      <selection activeCell="F133" sqref="F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4590,13 +4589,13 @@
         <v>800</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>883</v>
+        <v>863</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>0</v>
@@ -4606,13 +4605,13 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>828</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>829</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -4630,7 +4629,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>18</v>
@@ -4660,7 +4659,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4684,7 +4683,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4702,13 +4701,13 @@
         <v>806</v>
       </c>
       <c r="B7" s="3">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -4730,7 +4729,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>607</v>
@@ -4740,22 +4739,22 @@
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>835</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>836</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>837</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>838</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>814</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="N8" s="14"/>
     </row>
@@ -4770,18 +4769,20 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>840</v>
+        <v>882</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="9"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="14"/>
+      <c r="N9" s="14" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="11"/>
@@ -4807,7 +4808,9 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="14"/>
+      <c r="N10" s="14" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2" t="s">
@@ -4818,7 +4821,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>823</v>
+        <v>881</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>19</v>
@@ -4830,12 +4833,14 @@
         <v>2</v>
       </c>
       <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="14"/>
+      <c r="N11" s="14" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
@@ -4846,9 +4851,9 @@
         <v>11</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="E12" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>607</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -4858,14 +4863,16 @@
         <v>56</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>837</v>
-      </c>
-      <c r="I12" s="9"/>
+        <v>865</v>
+      </c>
+      <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="14"/>
+      <c r="N12" s="14" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
@@ -4876,9 +4883,9 @@
         <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="E13" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>607</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -4893,7 +4900,9 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="14"/>
+      <c r="N13" s="14" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
@@ -4904,13 +4913,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="E14" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>548</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>2</v>
@@ -4921,7 +4930,9 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="14"/>
+      <c r="N14" s="14" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
@@ -4934,11 +4945,11 @@
       <c r="D15" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>589</v>
+      <c r="E15" s="9" t="s">
+        <v>605</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>591</v>
+        <v>406</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>2</v>
@@ -4949,7 +4960,9 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="14"/>
+      <c r="N15" s="14" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
@@ -4960,26 +4973,26 @@
         <v>15</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>823</v>
+        <v>881</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>592</v>
+        <v>17</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>865</v>
-      </c>
-      <c r="I16" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="14"/>
+      <c r="N16" s="14" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2"/>
@@ -4990,30 +5003,26 @@
         <v>16</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>842</v>
+        <v>881</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>589</v>
+        <v>548</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>593</v>
+        <v>17</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>843</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>844</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>868</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="14"/>
+      <c r="N17" s="14" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2"/>
@@ -5024,32 +5033,28 @@
         <v>17</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>842</v>
+        <v>823</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>595</v>
+        <v>100</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>843</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>844</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>866</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="14"/>
+      <c r="N18" s="14" t="s">
+        <v>880</v>
+      </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" ht="15">
       <c r="A19" s="2" t="s">
         <v>819</v>
       </c>
@@ -5059,21 +5064,13 @@
       <c r="C19" s="4">
         <v>18</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>842</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>845</v>
-      </c>
+      <c r="D19" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -5090,17 +5087,19 @@
         <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>786</v>
-      </c>
-      <c r="F20" s="4">
-        <v>2</v>
-      </c>
-      <c r="G20" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H20" s="9"/>
-      <c r="I20" s="4"/>
+      <c r="I20" s="9"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -5119,17 +5118,15 @@
         <v>823</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>589</v>
+        <v>19</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>595</v>
+        <v>79</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>867</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -5144,17 +5141,19 @@
       <c r="D22" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>589</v>
+      <c r="E22" s="4" t="s">
+        <v>607</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="I22" s="9"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -5168,35 +5167,41 @@
       <c r="D23" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>589</v>
+      <c r="E23" s="4" t="s">
+        <v>607</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="14"/>
     </row>
-    <row r="24" spans="1:14" ht="15">
+    <row r="24" spans="1:14">
       <c r="C24" s="4">
         <v>23</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>848</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="D24" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -5210,17 +5215,17 @@
       <c r="D25" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>548</v>
+      <c r="E25" s="4" t="s">
+        <v>589</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>554</v>
+        <v>591</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -5238,13 +5243,15 @@
         <v>589</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>868</v>
+      </c>
+      <c r="I26" s="9"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
@@ -5256,22 +5263,26 @@
         <v>26</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>823</v>
+        <v>838</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>589</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>865</v>
-      </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="4"/>
+        <v>839</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>869</v>
+      </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -5282,25 +5293,25 @@
         <v>27</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>823</v>
+        <v>838</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>589</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -5312,7 +5323,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>823</v>
+        <v>838</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>589</v>
@@ -5321,34 +5332,34 @@
         <v>595</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>843</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>866</v>
-      </c>
+        <v>841</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="14"/>
     </row>
-    <row r="30" spans="1:14" ht="15">
+    <row r="30" spans="1:14">
       <c r="C30" s="4">
         <v>29</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="4"/>
+      <c r="D30" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2</v>
+      </c>
       <c r="G30" s="4"/>
       <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
+      <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -5372,9 +5383,9 @@
         <v>4</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>845</v>
-      </c>
-      <c r="I31" s="4"/>
+        <v>870</v>
+      </c>
+      <c r="I31" s="9"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -5386,15 +5397,17 @@
         <v>31</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>786</v>
-      </c>
-      <c r="F32" s="4">
-        <v>2</v>
-      </c>
-      <c r="G32" s="4"/>
+        <v>589</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H32" s="9"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -5414,39 +5427,31 @@
         <v>589</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>595</v>
+        <v>100</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>867</v>
-      </c>
-      <c r="I33" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="14"/>
     </row>
-    <row r="34" spans="3:14">
+    <row r="34" spans="3:14" ht="15">
       <c r="C34" s="4">
         <v>33</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D34" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
       <c r="H34" s="9"/>
-      <c r="I34" s="4"/>
+      <c r="I34" s="9"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
@@ -5461,16 +5466,16 @@
         <v>823</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>589</v>
+        <v>548</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>17</v>
+        <v>554</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H35" s="9"/>
-      <c r="I35" s="4"/>
+      <c r="I35" s="9"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -5485,33 +5490,41 @@
         <v>823</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>548</v>
+        <v>589</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>17</v>
+        <v>591</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
+      <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="14"/>
     </row>
-    <row r="37" spans="3:14" ht="15">
+    <row r="37" spans="3:14">
       <c r="C37" s="4">
         <v>36</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>851</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="9"/>
+      <c r="D37" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>868</v>
+      </c>
       <c r="I37" s="9"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -5527,17 +5540,23 @@
         <v>823</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>203</v>
+        <v>593</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>869</v>
+      </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
@@ -5551,40 +5570,40 @@
         <v>823</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>548</v>
+        <v>589</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>554</v>
+        <v>595</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>869</v>
+      </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="14"/>
     </row>
-    <row r="40" spans="3:14">
+    <row r="40" spans="3:14" ht="15">
       <c r="C40" s="4">
         <v>39</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D40" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
       <c r="H40" s="9"/>
-      <c r="I40" s="4"/>
+      <c r="I40" s="9"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -5602,15 +5621,15 @@
         <v>589</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>865</v>
-      </c>
-      <c r="I41" s="9"/>
+        <v>841</v>
+      </c>
+      <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -5622,26 +5641,18 @@
         <v>41</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>843</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>866</v>
-      </c>
+        <v>786</v>
+      </c>
+      <c r="F42" s="4">
+        <v>2</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
@@ -5661,17 +5672,13 @@
         <v>595</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>843</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>869</v>
-      </c>
+        <v>870</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
@@ -5688,13 +5695,13 @@
         <v>589</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>100</v>
+        <v>597</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
+      <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -5709,16 +5716,16 @@
         <v>823</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>548</v>
+        <v>589</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
+      <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
@@ -5733,10 +5740,10 @@
         <v>823</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>607</v>
+        <v>548</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>2</v>
@@ -5754,7 +5761,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="4"/>
@@ -5772,15 +5779,17 @@
         <v>47</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>854</v>
+        <v>823</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>847</v>
-      </c>
-      <c r="F48" s="4">
-        <v>5</v>
-      </c>
-      <c r="G48" s="4"/>
+        <v>607</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
       <c r="J48" s="4"/>
@@ -5797,10 +5806,10 @@
         <v>823</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>19</v>
+        <v>548</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>26</v>
+        <v>554</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>2</v>
@@ -5811,9 +5820,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
-      <c r="N49" s="14" t="s">
-        <v>825</v>
-      </c>
+      <c r="N49" s="14"/>
     </row>
     <row r="50" spans="3:14">
       <c r="C50" s="4">
@@ -5823,45 +5830,41 @@
         <v>823</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>19</v>
+        <v>589</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>102</v>
+        <v>591</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H50" s="9">
-        <v>2</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>855</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H50" s="9"/>
+      <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
-      <c r="N50" s="14" t="s">
-        <v>825</v>
-      </c>
+      <c r="N50" s="14"/>
     </row>
     <row r="51" spans="3:14">
       <c r="C51" s="4">
         <v>50</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>856</v>
+        <v>823</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>19</v>
+        <v>589</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>109</v>
+        <v>592</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H51" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>868</v>
+      </c>
       <c r="I51" s="9"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -5874,40 +5877,56 @@
         <v>51</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>856</v>
+        <v>823</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>19</v>
+        <v>589</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>119</v>
+        <v>593</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>870</v>
-      </c>
-      <c r="I52" s="9"/>
-      <c r="J52" s="4"/>
+        <v>839</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>869</v>
+      </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="14"/>
     </row>
-    <row r="53" spans="3:14" ht="15">
+    <row r="53" spans="3:14">
       <c r="C53" s="4">
         <v>52</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>857</v>
-      </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="4"/>
+      <c r="D53" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>871</v>
+      </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
@@ -5921,10 +5940,10 @@
         <v>823</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>19</v>
+        <v>589</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>2</v>
@@ -5935,9 +5954,7 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
-      <c r="N54" s="14" t="s">
-        <v>825</v>
-      </c>
+      <c r="N54" s="14"/>
     </row>
     <row r="55" spans="3:14">
       <c r="C55" s="4">
@@ -5947,10 +5964,10 @@
         <v>823</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>19</v>
+        <v>548</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>2</v>
@@ -5970,18 +5987,16 @@
       <c r="D56" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="9" t="s">
         <v>607</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>608</v>
+        <v>100</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>858</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H56" s="9"/>
       <c r="I56" s="9"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -5989,57 +6004,45 @@
       <c r="M56" s="4"/>
       <c r="N56" s="14"/>
     </row>
-    <row r="57" spans="3:14">
+    <row r="57" spans="3:14" ht="15">
       <c r="C57" s="4">
         <v>56</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D57" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
       <c r="H57" s="9"/>
-      <c r="I57" s="4"/>
+      <c r="I57" s="9"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
-      <c r="N57" s="14" t="s">
-        <v>859</v>
-      </c>
+      <c r="N57" s="14"/>
     </row>
     <row r="58" spans="3:14">
       <c r="C58" s="4">
         <v>57</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>849</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>843</v>
+      </c>
+      <c r="F58" s="4">
+        <v>5</v>
+      </c>
+      <c r="G58" s="4"/>
       <c r="H58" s="9"/>
-      <c r="I58" s="4"/>
+      <c r="I58" s="9"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
-      <c r="N58" s="14" t="s">
-        <v>859</v>
-      </c>
+      <c r="N58" s="14"/>
     </row>
     <row r="59" spans="3:14">
       <c r="C59" s="4">
@@ -6049,16 +6052,16 @@
         <v>823</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>589</v>
+        <v>19</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>591</v>
+        <v>26</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H59" s="9"/>
-      <c r="I59" s="4"/>
+      <c r="I59" s="9"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
@@ -6073,18 +6076,20 @@
         <v>823</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>589</v>
+        <v>19</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>592</v>
+        <v>102</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H60" s="9" t="s">
-        <v>841</v>
-      </c>
-      <c r="I60" s="9"/>
+      <c r="H60" s="9">
+        <v>2</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>866</v>
+      </c>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
@@ -6096,26 +6101,20 @@
         <v>60</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>823</v>
+        <v>850</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>589</v>
+        <v>19</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>593</v>
+        <v>109</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>843</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>844</v>
-      </c>
-      <c r="J61" s="9" t="s">
-        <v>852</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
@@ -6126,51 +6125,39 @@
         <v>61</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>823</v>
+        <v>850</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>589</v>
+        <v>19</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>595</v>
+        <v>119</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>843</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>844</v>
-      </c>
-      <c r="J62" s="9" t="s">
-        <v>852</v>
-      </c>
+        <v>871</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
       <c r="N62" s="14"/>
     </row>
-    <row r="63" spans="3:14">
+    <row r="63" spans="3:14" ht="15">
       <c r="C63" s="4">
         <v>62</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>845</v>
-      </c>
-      <c r="I63" s="4"/>
+      <c r="D63" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="E63" s="9"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
@@ -6182,17 +6169,19 @@
         <v>63</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>786</v>
-      </c>
-      <c r="F64" s="4">
-        <v>2</v>
-      </c>
-      <c r="G64" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H64" s="9"/>
-      <c r="I64" s="4"/>
+      <c r="I64" s="9"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
@@ -6207,18 +6196,16 @@
         <v>823</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>589</v>
+        <v>19</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>595</v>
+        <v>79</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>874</v>
-      </c>
-      <c r="I65" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
@@ -6232,17 +6219,19 @@
       <c r="D66" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="E66" s="9" t="s">
-        <v>589</v>
+      <c r="E66" s="4" t="s">
+        <v>607</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H66" s="9"/>
-      <c r="I66" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="I66" s="9"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
@@ -6256,19 +6245,17 @@
       <c r="D67" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="E67" s="9" t="s">
-        <v>589</v>
+      <c r="E67" s="4" t="s">
+        <v>607</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>592</v>
+        <v>203</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>865</v>
-      </c>
-      <c r="I67" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="H67" s="9"/>
+      <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
@@ -6282,24 +6269,18 @@
       <c r="D68" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="E68" s="9" t="s">
-        <v>589</v>
+      <c r="E68" s="4" t="s">
+        <v>548</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>593</v>
+        <v>554</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>843</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="J68" s="9" t="s">
-        <v>866</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H68" s="9"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
@@ -6316,20 +6297,14 @@
         <v>589</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>843</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="J69" s="9" t="s">
-        <v>869</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H69" s="9"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
@@ -6346,15 +6321,15 @@
         <v>589</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>845</v>
-      </c>
-      <c r="I70" s="4"/>
+        <v>872</v>
+      </c>
+      <c r="I70" s="9"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
@@ -6366,18 +6341,26 @@
         <v>70</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>786</v>
-      </c>
-      <c r="F71" s="4">
-        <v>2</v>
-      </c>
-      <c r="G71" s="4"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
+        <v>589</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>873</v>
+      </c>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
@@ -6397,13 +6380,17 @@
         <v>595</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>871</v>
-      </c>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
+        <v>839</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>873</v>
+      </c>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
@@ -6420,12 +6407,14 @@
         <v>589</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H73" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>841</v>
+      </c>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
@@ -6438,20 +6427,16 @@
         <v>73</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>845</v>
-      </c>
+        <v>786</v>
+      </c>
+      <c r="F74" s="4">
+        <v>2</v>
+      </c>
+      <c r="G74" s="4"/>
+      <c r="H74" s="9"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
@@ -6464,16 +6449,20 @@
         <v>74</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>786</v>
-      </c>
-      <c r="F75" s="4">
-        <v>2</v>
-      </c>
-      <c r="G75" s="4"/>
-      <c r="H75" s="9"/>
+        <v>589</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>876</v>
+      </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
@@ -6492,14 +6481,12 @@
         <v>589</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>860</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H76" s="9"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
@@ -6518,13 +6505,15 @@
         <v>589</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H77" s="9"/>
-      <c r="I77" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>868</v>
+      </c>
+      <c r="I77" s="9"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
@@ -6542,14 +6531,20 @@
         <v>589</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>17</v>
+        <v>593</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H78" s="9"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>869</v>
+      </c>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
@@ -6563,17 +6558,23 @@
         <v>823</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>548</v>
+        <v>589</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>17</v>
+        <v>595</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>871</v>
+      </c>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
@@ -6586,37 +6587,41 @@
       <c r="D80" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="E80" s="4" t="s">
-        <v>607</v>
+      <c r="E80" s="9" t="s">
+        <v>589</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>100</v>
+        <v>595</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H80" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>841</v>
+      </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
-      <c r="N80" s="14" t="s">
-        <v>859</v>
-      </c>
+      <c r="N80" s="14"/>
     </row>
-    <row r="81" spans="3:14" ht="15">
+    <row r="81" spans="3:14">
       <c r="C81" s="4">
         <v>80</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>846</v>
-      </c>
-      <c r="E81" s="9"/>
-      <c r="F81" s="4"/>
+      <c r="D81" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="F81" s="4">
+        <v>2</v>
+      </c>
       <c r="G81" s="4"/>
       <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
+      <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
@@ -6628,17 +6633,21 @@
         <v>81</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>810</v>
+        <v>823</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>847</v>
-      </c>
-      <c r="F82" s="4">
-        <v>5</v>
-      </c>
-      <c r="G82" s="4"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
+        <v>589</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
@@ -6653,23 +6662,21 @@
         <v>823</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>19</v>
+        <v>589</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>26</v>
+        <v>597</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
+      <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
-      <c r="N83" s="14" t="s">
-        <v>825</v>
-      </c>
+      <c r="N83" s="14"/>
     </row>
     <row r="84" spans="3:14">
       <c r="C84" s="4">
@@ -6679,46 +6686,40 @@
         <v>823</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>19</v>
+        <v>589</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>102</v>
+        <v>595</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H84" s="9">
-        <v>2</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>855</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
-      <c r="N84" s="14" t="s">
-        <v>825</v>
-      </c>
+      <c r="N84" s="14"/>
     </row>
     <row r="85" spans="3:14">
       <c r="C85" s="4">
         <v>84</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>856</v>
+        <v>822</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>786</v>
+      </c>
+      <c r="F85" s="4">
+        <v>2</v>
+      </c>
+      <c r="G85" s="4"/>
       <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
+      <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
@@ -6730,21 +6731,21 @@
         <v>85</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>856</v>
+        <v>823</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>19</v>
+        <v>589</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>119</v>
+        <v>595</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>875</v>
-      </c>
-      <c r="I86" s="9"/>
+        <v>852</v>
+      </c>
+      <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
@@ -6756,39 +6757,43 @@
         <v>86</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>856</v>
+        <v>823</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>19</v>
+        <v>589</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>119</v>
+        <v>597</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>872</v>
-      </c>
-      <c r="I87" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="H87" s="9"/>
+      <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
       <c r="N87" s="14"/>
     </row>
-    <row r="88" spans="3:14" ht="15">
+    <row r="88" spans="3:14">
       <c r="C88" s="4">
         <v>87</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>861</v>
-      </c>
-      <c r="E88" s="9"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
+      <c r="D88" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
+      <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
@@ -6800,19 +6805,19 @@
         <v>88</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>842</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>19</v>
+        <v>823</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>548</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
@@ -6824,18 +6829,18 @@
         <v>89</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>842</v>
+        <v>823</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>19</v>
+        <v>607</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H90" s="4"/>
+      <c r="H90" s="9"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
@@ -6843,22 +6848,16 @@
       <c r="M90" s="4"/>
       <c r="N90" s="14"/>
     </row>
-    <row r="91" spans="3:14">
+    <row r="91" spans="3:14" ht="15">
       <c r="C91" s="4">
         <v>90</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D91" s="5" t="s">
         <v>842</v>
       </c>
-      <c r="E91" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="E91" s="9"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
       <c r="J91" s="4"/>
@@ -6872,21 +6871,17 @@
         <v>91</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>842</v>
+        <v>810</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H92" s="9" t="s">
-        <v>863</v>
-      </c>
-      <c r="I92" s="4"/>
+        <v>843</v>
+      </c>
+      <c r="F92" s="4">
+        <v>5</v>
+      </c>
+      <c r="G92" s="4"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
@@ -6898,21 +6893,19 @@
         <v>92</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>842</v>
+        <v>823</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>341</v>
+        <v>19</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>221</v>
+        <v>26</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H93" s="9" t="s">
-        <v>864</v>
-      </c>
-      <c r="I93" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
@@ -6924,19 +6917,23 @@
         <v>93</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>842</v>
+        <v>823</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>341</v>
+        <v>19</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>212</v>
+        <v>102</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H94" s="9"/>
-      <c r="I94" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H94" s="9">
+        <v>2</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>866</v>
+      </c>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
@@ -6948,19 +6945,19 @@
         <v>94</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>823</v>
+        <v>850</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>347</v>
+        <v>19</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>316</v>
+        <v>109</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H95" s="9"/>
-      <c r="I95" s="4"/>
+      <c r="I95" s="9"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
@@ -6972,19 +6969,21 @@
         <v>95</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>823</v>
+        <v>850</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>347</v>
+        <v>19</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H96" s="9"/>
-      <c r="I96" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="I96" s="9"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
@@ -6996,19 +6995,19 @@
         <v>96</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>348</v>
+        <v>19</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>222</v>
+        <v>119</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="4"/>
@@ -7017,25 +7016,17 @@
       <c r="M97" s="4"/>
       <c r="N97" s="14"/>
     </row>
-    <row r="98" spans="3:14">
+    <row r="98" spans="3:14" ht="15">
       <c r="C98" s="4">
         <v>97</v>
       </c>
-      <c r="D98" s="6" t="s">
-        <v>842</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>864</v>
-      </c>
+      <c r="D98" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="E98" s="9"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="9"/>
       <c r="I98" s="9"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
@@ -7048,21 +7039,19 @@
         <v>98</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>348</v>
+        <v>838</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>350</v>
+        <v>22</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>882</v>
-      </c>
-      <c r="I99" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
@@ -7074,21 +7063,19 @@
         <v>99</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>348</v>
+        <v>838</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H100" s="9" t="s">
-        <v>875</v>
-      </c>
-      <c r="I100" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
@@ -7100,19 +7087,19 @@
         <v>100</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H101" s="9"/>
-      <c r="I101" s="4"/>
+      <c r="I101" s="9"/>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
@@ -7124,18 +7111,20 @@
         <v>101</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>341</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H102" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>855</v>
+      </c>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
@@ -7148,18 +7137,20 @@
         <v>102</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>823</v>
+        <v>838</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>313</v>
+        <v>221</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H103" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>856</v>
+      </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
@@ -7172,13 +7163,13 @@
         <v>103</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>823</v>
+        <v>838</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>2</v>
@@ -7196,21 +7187,19 @@
         <v>104</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>842</v>
+        <v>823</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>222</v>
+        <v>316</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H105" s="9" t="s">
-        <v>877</v>
-      </c>
-      <c r="I105" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="H105" s="9"/>
+      <c r="I105" s="4"/>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
@@ -7222,21 +7211,19 @@
         <v>105</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>842</v>
+        <v>823</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>221</v>
+        <v>17</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H106" s="9" t="s">
-        <v>864</v>
-      </c>
-      <c r="I106" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="H106" s="9"/>
+      <c r="I106" s="4"/>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
@@ -7248,19 +7235,19 @@
         <v>106</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>823</v>
+        <v>838</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>348</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>350</v>
+        <v>222</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>882</v>
+        <v>4</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>857</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="4"/>
@@ -7274,19 +7261,19 @@
         <v>107</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>823</v>
+        <v>838</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>348</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>351</v>
+        <v>221</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="4"/>
@@ -7300,19 +7287,21 @@
         <v>108</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>842</v>
+        <v>823</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>348</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>146</v>
+        <v>350</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H109" s="9"/>
-      <c r="I109" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="I109" s="9"/>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
@@ -7324,19 +7313,19 @@
         <v>109</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>842</v>
+        <v>823</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>100</v>
+        <v>351</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H110" s="9"/>
-      <c r="I110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="9"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
@@ -7348,18 +7337,20 @@
         <v>110</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>842</v>
+        <v>823</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>100</v>
+        <v>351</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H111" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>878</v>
+      </c>
       <c r="I111" s="9"/>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
@@ -7367,17 +7358,25 @@
       <c r="M111" s="4"/>
       <c r="N111" s="14"/>
     </row>
-    <row r="112" spans="3:14" ht="15">
+    <row r="112" spans="3:14">
       <c r="C112" s="4">
         <v>111</v>
       </c>
-      <c r="D112" s="5" t="s">
-        <v>862</v>
-      </c>
-      <c r="E112" s="9"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="9"/>
+      <c r="D112" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H112" s="9" t="s">
+        <v>877</v>
+      </c>
       <c r="I112" s="9"/>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
@@ -7390,17 +7389,19 @@
         <v>112</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>854</v>
+        <v>838</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>847</v>
-      </c>
-      <c r="F113" s="4">
-        <v>5</v>
-      </c>
-      <c r="G113" s="4"/>
+        <v>348</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H113" s="9"/>
-      <c r="I113" s="9"/>
+      <c r="I113" s="4"/>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
@@ -7412,13 +7413,13 @@
         <v>113</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>19</v>
+        <v>838</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>341</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>2</v>
@@ -7429,9 +7430,7 @@
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
-      <c r="N114" s="14" t="s">
-        <v>873</v>
-      </c>
+      <c r="N114" s="14"/>
     </row>
     <row r="115" spans="3:14">
       <c r="C115" s="4">
@@ -7440,11 +7439,11 @@
       <c r="D115" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="E115" s="4" t="s">
-        <v>19</v>
+      <c r="E115" s="9" t="s">
+        <v>347</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>90</v>
+        <v>313</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>2</v>
@@ -7455,9 +7454,7 @@
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
       <c r="M115" s="4"/>
-      <c r="N115" s="14" t="s">
-        <v>873</v>
-      </c>
+      <c r="N115" s="14"/>
     </row>
     <row r="116" spans="3:14">
       <c r="C116" s="4">
@@ -7466,11 +7463,11 @@
       <c r="D116" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="E116" s="4" t="s">
-        <v>19</v>
+      <c r="E116" s="9" t="s">
+        <v>347</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>2</v>
@@ -7481,61 +7478,59 @@
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
-      <c r="N116" s="14" t="s">
-        <v>873</v>
-      </c>
+      <c r="N116" s="14"/>
     </row>
     <row r="117" spans="3:14">
       <c r="C117" s="4">
         <v>116</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>738</v>
+        <v>838</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>348</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H117" s="9"/>
-      <c r="I117" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>858</v>
+      </c>
+      <c r="I117" s="9"/>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
       <c r="M117" s="4"/>
-      <c r="N117" s="14" t="s">
-        <v>873</v>
-      </c>
+      <c r="N117" s="14"/>
     </row>
     <row r="118" spans="3:14">
       <c r="C118" s="4">
         <v>117</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>738</v>
+        <v>838</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>348</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>739</v>
+        <v>221</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H118" s="9"/>
-      <c r="I118" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>856</v>
+      </c>
+      <c r="I118" s="9"/>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
       <c r="M118" s="4"/>
-      <c r="N118" s="14" t="s">
-        <v>873</v>
-      </c>
+      <c r="N118" s="14"/>
     </row>
     <row r="119" spans="3:14">
       <c r="C119" s="4">
@@ -7544,24 +7539,24 @@
       <c r="D119" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="E119" s="4" t="s">
-        <v>738</v>
+      <c r="E119" s="9" t="s">
+        <v>348</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>195</v>
+        <v>350</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H119" s="9"/>
-      <c r="I119" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="I119" s="9"/>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
       <c r="M119" s="4"/>
-      <c r="N119" s="14" t="s">
-        <v>873</v>
-      </c>
+      <c r="N119" s="14"/>
     </row>
     <row r="120" spans="3:14">
       <c r="C120" s="4">
@@ -7570,36 +7565,34 @@
       <c r="D120" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="E120" s="4" t="s">
-        <v>738</v>
+      <c r="E120" s="9" t="s">
+        <v>348</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>748</v>
+        <v>351</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>871</v>
-      </c>
-      <c r="I120" s="4"/>
+        <v>879</v>
+      </c>
+      <c r="I120" s="9"/>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
       <c r="M120" s="4"/>
-      <c r="N120" s="14" t="s">
-        <v>873</v>
-      </c>
+      <c r="N120" s="14"/>
     </row>
     <row r="121" spans="3:14">
       <c r="C121" s="4">
         <v>120</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>738</v>
+        <v>838</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>348</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>146</v>
@@ -7613,20 +7606,24 @@
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
       <c r="M121" s="4"/>
-      <c r="N121" s="14" t="s">
-        <v>873</v>
-      </c>
+      <c r="N121" s="14"/>
     </row>
-    <row r="122" spans="3:14" ht="15">
+    <row r="122" spans="3:14">
       <c r="C122" s="4">
         <v>121</v>
       </c>
-      <c r="D122" s="5" t="s">
-        <v>878</v>
-      </c>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
+      <c r="D122" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H122" s="9"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
@@ -7640,119 +7637,101 @@
         <v>122</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>823</v>
+        <v>838</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>19</v>
+        <v>337</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H123" s="9"/>
-      <c r="I123" s="4"/>
+      <c r="I123" s="9"/>
       <c r="J123" s="4"/>
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
       <c r="M123" s="4"/>
-      <c r="N123" s="14" t="s">
-        <v>873</v>
-      </c>
+      <c r="N123" s="14"/>
     </row>
-    <row r="124" spans="3:14">
+    <row r="124" spans="3:14" ht="15">
       <c r="C124" s="4">
         <v>123</v>
       </c>
-      <c r="D124" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="E124" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D124" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="E124" s="9"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
       <c r="M124" s="4"/>
-      <c r="N124" s="14" t="s">
-        <v>873</v>
-      </c>
+      <c r="N124" s="14"/>
     </row>
     <row r="125" spans="3:14">
       <c r="C125" s="4">
         <v>124</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>879</v>
+        <v>849</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>880</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="G125" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H125" s="4" t="s">
-        <v>881</v>
-      </c>
-      <c r="I125" s="4"/>
+        <v>843</v>
+      </c>
+      <c r="F125" s="4">
+        <v>5</v>
+      </c>
+      <c r="G125" s="4"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9"/>
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
       <c r="M125" s="4"/>
-      <c r="N125" s="14" t="s">
-        <v>873</v>
-      </c>
+      <c r="N125" s="14"/>
     </row>
-    <row r="126" spans="3:14" ht="14.25">
+    <row r="126" spans="3:14">
       <c r="C126" s="4">
         <v>125</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>879</v>
-      </c>
-      <c r="E126" s="9" t="s">
-        <v>880</v>
+        <v>823</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>213</v>
+        <v>23</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H126" s="15"/>
+      <c r="H126" s="9"/>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
       <c r="M126" s="4"/>
-      <c r="N126" s="14" t="s">
-        <v>873</v>
-      </c>
+      <c r="N126" s="14"/>
     </row>
     <row r="127" spans="3:14">
       <c r="C127" s="4">
         <v>126</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>879</v>
+        <v>823</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>615</v>
+        <v>19</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>233</v>
+        <v>90</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>2</v>
@@ -7763,44 +7742,50 @@
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
-      <c r="N127" s="14" t="s">
-        <v>873</v>
-      </c>
+      <c r="N127" s="14"/>
     </row>
     <row r="128" spans="3:14">
       <c r="C128" s="4">
         <v>127</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>879</v>
-      </c>
-      <c r="E128" s="9" t="s">
-        <v>880</v>
+        <v>823</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H128" s="9"/>
-      <c r="I128" s="9"/>
+      <c r="I128" s="4"/>
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
       <c r="M128" s="4"/>
-      <c r="N128" s="14" t="s">
-        <v>873</v>
-      </c>
+      <c r="N128" s="14"/>
     </row>
     <row r="129" spans="3:14">
-      <c r="C129" s="4"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
+      <c r="C129" s="4">
+        <v>128</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H129" s="9"/>
-      <c r="I129" s="9"/>
+      <c r="I129" s="4"/>
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
@@ -7808,53 +7793,333 @@
       <c r="N129" s="14"/>
     </row>
     <row r="130" spans="3:14">
-      <c r="C130" s="4"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
+      <c r="C130" s="4">
+        <v>129</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H130" s="9"/>
-      <c r="I130" s="9"/>
+      <c r="I130" s="4"/>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
       <c r="M130" s="4"/>
       <c r="N130" s="14"/>
     </row>
+    <row r="131" spans="3:14">
+      <c r="C131" s="4">
+        <v>130</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H131" s="9"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="14"/>
+    </row>
+    <row r="132" spans="3:14">
+      <c r="C132" s="4">
+        <v>131</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>883</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H132" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+      <c r="L132" s="4"/>
+      <c r="M132" s="4"/>
+      <c r="N132" s="14"/>
+    </row>
+    <row r="133" spans="3:14">
+      <c r="C133" s="4">
+        <v>132</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H133" s="9"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
+      <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
+      <c r="N133" s="14"/>
+    </row>
+    <row r="134" spans="3:14" ht="15">
+      <c r="C134" s="4">
+        <v>133</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
+      <c r="L134" s="4"/>
+      <c r="M134" s="4"/>
+      <c r="N134" s="14"/>
+    </row>
+    <row r="135" spans="3:14">
+      <c r="C135" s="4">
+        <v>134</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H135" s="9"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
+      <c r="L135" s="4"/>
+      <c r="M135" s="4"/>
+      <c r="N135" s="14"/>
+    </row>
+    <row r="136" spans="3:14">
+      <c r="C136" s="4">
+        <v>135</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H136" s="9"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
+      <c r="L136" s="4"/>
+      <c r="M136" s="4"/>
+      <c r="N136" s="14"/>
+    </row>
+    <row r="137" spans="3:14">
+      <c r="C137" s="4">
+        <v>136</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="I137" s="4"/>
+      <c r="J137" s="4"/>
+      <c r="K137" s="4"/>
+      <c r="L137" s="4"/>
+      <c r="M137" s="4"/>
+      <c r="N137" s="14"/>
+    </row>
+    <row r="138" spans="3:14" ht="14.25">
+      <c r="C138" s="4">
+        <v>137</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H138" s="15"/>
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
+      <c r="K138" s="4"/>
+      <c r="L138" s="4"/>
+      <c r="M138" s="4"/>
+      <c r="N138" s="14"/>
+    </row>
+    <row r="139" spans="3:14">
+      <c r="C139" s="4">
+        <v>138</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H139" s="9"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="4"/>
+      <c r="K139" s="4"/>
+      <c r="L139" s="4"/>
+      <c r="M139" s="4"/>
+      <c r="N139" s="14"/>
+    </row>
+    <row r="140" spans="3:14">
+      <c r="C140" s="4">
+        <v>139</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H140" s="9"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="4"/>
+      <c r="K140" s="4"/>
+      <c r="L140" s="4"/>
+      <c r="M140" s="4"/>
+      <c r="N140" s="14"/>
+    </row>
+    <row r="141" spans="3:14">
+      <c r="C141" s="4">
+        <v>140</v>
+      </c>
+      <c r="D141" s="6"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="4"/>
+      <c r="K141" s="4"/>
+      <c r="L141" s="4"/>
+      <c r="M141" s="4"/>
+      <c r="N141" s="14"/>
+    </row>
+    <row r="142" spans="3:14">
+      <c r="C142" s="4">
+        <v>141</v>
+      </c>
+      <c r="D142" s="6"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="4"/>
+      <c r="K142" s="4"/>
+      <c r="L142" s="4"/>
+      <c r="M142" s="4"/>
+      <c r="N142" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N130">
-    <cfRule type="cellIs" dxfId="3" priority="11" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N142">
+    <cfRule type="cellIs" dxfId="3" priority="13" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="14" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N122:N128">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N134:N140">
+    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D89:D111 D113 D3:D4 D85:D87 D54:D56 D51:D52 D48 D31:D36 D25:D29 D38:D46 D8 D15:D23 D10:D12 D123:D124 D82 D59:D79">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D69:D89 D125 D95:D97 D64:D66 D61:D62 D58 D41:D46 D35:D39 D48:D56 D25:D33 D20:D22 D135:D136 D92 D99:D123 D3:D4 D8 D10:D18">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G126:G130 G2:G124">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G138:G142 G2:G136">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F130">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F142">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E130">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E142">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H18" r:id="rId1" display="http://10.130.112.3"/>
+    <hyperlink ref="H28" r:id="rId1" display="http://10.130.112.3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NformTester/NformTester/keywordscripts/TST1174_DataPointsNameIsEditableOrNot.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1174_DataPointsNameIsEditableOrNot.xlsx
@@ -1240,7 +1240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8028" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8029" uniqueCount="884">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3880,22 +3880,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ABC GXT UPS (10.146.88.10)"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"System Name"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3952,6 +3936,22 @@
   </si>
   <si>
     <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ABC GXT UPS (10.146.83.5)"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4499,13 +4499,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C125" workbookViewId="0">
-      <selection activeCell="F133" sqref="F133"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="5" max="5" width="35.25" customWidth="1"/>
@@ -4677,7 +4677,7 @@
         <v>805</v>
       </c>
       <c r="B6" s="8">
-        <v>41106</v>
+        <v>41446</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -4722,9 +4722,9 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>880</v>
+      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>
@@ -4742,10 +4742,10 @@
         <v>834</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>864</v>
+        <v>881</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>865</v>
+        <v>882</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>835</v>
@@ -4760,16 +4760,14 @@
     </row>
     <row r="9" spans="1:14" ht="15">
       <c r="A9" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>808</v>
-      </c>
+        <v>797</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -4781,12 +4779,16 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="14" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>808</v>
+      </c>
       <c r="C10" s="4">
         <v>9</v>
       </c>
@@ -4809,19 +4811,17 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="14" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="B11" s="13"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>19</v>
@@ -4839,19 +4839,19 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="14" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="4">
         <v>11</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>607</v>
@@ -4863,7 +4863,7 @@
         <v>56</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>865</v>
+        <v>882</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -4871,19 +4871,19 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="14" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="4">
         <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>607</v>
@@ -4901,19 +4901,19 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="14" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="4">
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>548</v>
@@ -4931,12 +4931,12 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="14" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="4">
@@ -4961,19 +4961,19 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="14" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="4">
         <v>15</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>605</v>
@@ -4991,19 +4991,19 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="14" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="2"/>
-      <c r="B17" s="13" t="s">
-        <v>817</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="B17" s="13"/>
       <c r="C17" s="4">
         <v>16</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>548</v>
@@ -5021,13 +5021,13 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="14" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2"/>
       <c r="B18" s="13" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
@@ -5051,15 +5051,13 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="14" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15">
-      <c r="A19" s="2" t="s">
-        <v>819</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="13" t="s">
-        <v>808</v>
+        <v>818</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
@@ -5080,9 +5078,11 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="B20" s="13"/>
+        <v>819</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>808</v>
+      </c>
       <c r="C20" s="4">
         <v>19</v>
       </c>
@@ -5108,7 +5108,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="4">
@@ -5135,6 +5135,10 @@
       <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:14">
+      <c r="A22" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B22" s="13"/>
       <c r="C22" s="4">
         <v>21</v>
       </c>
@@ -5151,7 +5155,7 @@
         <v>56</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="4"/>
@@ -5249,7 +5253,7 @@
         <v>56</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="4"/>
@@ -5281,7 +5285,7 @@
         <v>840</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -5311,7 +5315,7 @@
         <v>840</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -5383,7 +5387,7 @@
         <v>4</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="4"/>
@@ -5523,7 +5527,7 @@
         <v>56</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="4"/>
@@ -5555,7 +5559,7 @@
         <v>845</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
@@ -5585,7 +5589,7 @@
         <v>845</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -5675,7 +5679,7 @@
         <v>4</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -5863,7 +5867,7 @@
         <v>56</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="4"/>
@@ -5895,7 +5899,7 @@
         <v>845</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -5925,7 +5929,7 @@
         <v>845</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -6088,7 +6092,7 @@
         <v>2</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -6137,7 +6141,7 @@
         <v>60</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="4"/>
@@ -6229,7 +6233,7 @@
         <v>56</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="4"/>
@@ -6327,7 +6331,7 @@
         <v>56</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="4"/>
@@ -6359,7 +6363,7 @@
         <v>840</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
@@ -6389,7 +6393,7 @@
         <v>840</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
@@ -6461,7 +6465,7 @@
         <v>4</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
@@ -6511,7 +6515,7 @@
         <v>56</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="4"/>
@@ -6543,7 +6547,7 @@
         <v>845</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
@@ -6573,7 +6577,7 @@
         <v>845</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
@@ -6645,7 +6649,7 @@
         <v>4</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
@@ -6932,7 +6936,7 @@
         <v>2</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
@@ -6981,7 +6985,7 @@
         <v>60</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="4"/>
@@ -7007,7 +7011,7 @@
         <v>60</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="4"/>
@@ -7299,7 +7303,7 @@
         <v>13</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>867</v>
+        <v>883</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="4"/>
@@ -7349,7 +7353,7 @@
         <v>3</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="4"/>
@@ -7375,7 +7379,7 @@
         <v>60</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="4"/>
@@ -7549,7 +7553,7 @@
         <v>13</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>867</v>
+        <v>883</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="4"/>
@@ -7575,7 +7579,7 @@
         <v>60</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="4"/>
@@ -7845,7 +7849,7 @@
         <v>131</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>738</v>
@@ -7857,7 +7861,7 @@
         <v>60</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
